--- a/biology/Microbiologie/Dechloromonas/Dechloromonas.xlsx
+++ b/biology/Microbiologie/Dechloromonas/Dechloromonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dechloromonas est un genre de bactéries appartenant au phylum des Proteobacteria[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dechloromonas est un genre de bactéries appartenant au phylum des Proteobacteria.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Dechloromonas a plusieurs origines : le préfixe latin de ; le nom néolatin chlorinum (issu de l'adjectif grec chlorōs qui signifie "vert") désignant le chlore ; le préfixe néolatin chloro- se rapportant au chlore ; le nom latin féminin monas (issu du grec μονάς / μονάδα) signifiant "unité" et par extension "organisme unicellulaire" ; et enfin, le nom néolatin féminin Dechloromonas dans son ensemble, qui signifie "organisme unicellulaire déchlorant"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Dechloromonas a plusieurs origines : le préfixe latin de ; le nom néolatin chlorinum (issu de l'adjectif grec chlorōs qui signifie "vert") désignant le chlore ; le préfixe néolatin chloro- se rapportant au chlore ; le nom latin féminin monas (issu du grec μονάς / μονάδα) signifiant "unité" et par extension "organisme unicellulaire" ; et enfin, le nom néolatin féminin Dechloromonas dans son ensemble, qui signifie "organisme unicellulaire déchlorant".
 Les membres du genre Dechloromonas peuvent être appelés "dechloromonades" (dechloromonads en anglais).
 </t>
         </is>
@@ -543,13 +557,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre contient actuellement quatre espèces[1], qui sont :
-D. agitata (Achenbach et al., 2001) : espèce-type du genre, provient de l'adjectif latin féminin agitata qui veut dire "excité", "agité", "fortement actif"[2] ;
-D. aromatica (Cavalier-Smith, 2002)[3] ;
-D. denitrificans (Horn et al., 2005) ; provient de l'adjectif latin féminin denitrificans, qui signifie "dénitrifiant"[4] ;
-D. hortensis (Wolterink et al., 2005) ; provient de l'adjectif latin féminin hortensis, qui veut dire "provenant de/appartenant à un jardin"[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre contient actuellement quatre espèces, qui sont :
+D. agitata (Achenbach et al., 2001) : espèce-type du genre, provient de l'adjectif latin féminin agitata qui veut dire "excité", "agité", "fortement actif" ;
+D. aromatica (Cavalier-Smith, 2002) ;
+D. denitrificans (Horn et al., 2005) ; provient de l'adjectif latin féminin denitrificans, qui signifie "dénitrifiant" ;
+D. hortensis (Wolterink et al., 2005) ; provient de l'adjectif latin féminin hortensis, qui veut dire "provenant de/appartenant à un jardin".</t>
         </is>
       </c>
     </row>
